--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Psen1-Ncstn.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Psen1-Ncstn.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.675848</v>
+        <v>15.18183966666667</v>
       </c>
       <c r="H2">
-        <v>29.027544</v>
+        <v>45.545519</v>
       </c>
       <c r="I2">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="J2">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.38628533333333</v>
+        <v>22.18032933333333</v>
       </c>
       <c r="N2">
-        <v>40.158856</v>
+        <v>66.540988</v>
       </c>
       <c r="O2">
-        <v>0.0790701185256053</v>
+        <v>0.1293075712687413</v>
       </c>
       <c r="P2">
-        <v>0.07907011852560532</v>
+        <v>0.1293075712687413</v>
       </c>
       <c r="Q2">
-        <v>129.5236621699627</v>
+        <v>336.7382036925302</v>
       </c>
       <c r="R2">
-        <v>1165.712959529664</v>
+        <v>3030.643833232772</v>
       </c>
       <c r="S2">
-        <v>0.004664425838796621</v>
+        <v>0.01099920022745137</v>
       </c>
       <c r="T2">
-        <v>0.004664425838796621</v>
+        <v>0.01099920022745137</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.675848</v>
+        <v>15.18183966666667</v>
       </c>
       <c r="H3">
-        <v>29.027544</v>
+        <v>45.545519</v>
       </c>
       <c r="I3">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="J3">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.29177033333333</v>
+        <v>27.29177033333334</v>
       </c>
       <c r="N3">
-        <v>81.875311</v>
+        <v>81.87531100000001</v>
       </c>
       <c r="O3">
-        <v>0.1612070459649248</v>
+        <v>0.1591064084032366</v>
       </c>
       <c r="P3">
-        <v>0.1612070459649248</v>
+        <v>0.1591064084032366</v>
       </c>
       <c r="Q3">
-        <v>264.0710213962427</v>
+        <v>414.3392814201566</v>
       </c>
       <c r="R3">
-        <v>2376.639192566184</v>
+        <v>3729.05353278141</v>
       </c>
       <c r="S3">
-        <v>0.009509765820717331</v>
+        <v>0.01353395803762114</v>
       </c>
       <c r="T3">
-        <v>0.009509765820717333</v>
+        <v>0.01353395803762114</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.675848</v>
+        <v>15.18183966666667</v>
       </c>
       <c r="H4">
-        <v>29.027544</v>
+        <v>45.545519</v>
       </c>
       <c r="I4">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="J4">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.05126633333333</v>
+        <v>38.31685533333334</v>
       </c>
       <c r="N4">
-        <v>120.153799</v>
+        <v>114.950566</v>
       </c>
       <c r="O4">
-        <v>0.2365748448668895</v>
+        <v>0.2233807905801933</v>
       </c>
       <c r="P4">
-        <v>0.2365748448668896</v>
+        <v>0.2233807905801933</v>
       </c>
       <c r="Q4">
-        <v>387.5299652488507</v>
+        <v>581.7203542015283</v>
       </c>
       <c r="R4">
-        <v>3487.769687239655</v>
+        <v>5235.483187813754</v>
       </c>
       <c r="S4">
-        <v>0.01395578810026798</v>
+        <v>0.01900128521826072</v>
       </c>
       <c r="T4">
-        <v>0.01395578810026799</v>
+        <v>0.01900128521826072</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.675848</v>
+        <v>15.18183966666667</v>
       </c>
       <c r="H5">
-        <v>29.027544</v>
+        <v>45.545519</v>
       </c>
       <c r="I5">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="J5">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.089213</v>
+        <v>12.230165</v>
       </c>
       <c r="N5">
-        <v>57.267639</v>
+        <v>36.690495</v>
       </c>
       <c r="O5">
-        <v>0.1127561752110562</v>
+        <v>0.07129979490382526</v>
       </c>
       <c r="P5">
-        <v>0.1127561752110563</v>
+        <v>0.07129979490382526</v>
       </c>
       <c r="Q5">
-        <v>184.704323427624</v>
+        <v>185.6764041268783</v>
       </c>
       <c r="R5">
-        <v>1662.338910848616</v>
+        <v>1671.087637141905</v>
       </c>
       <c r="S5">
-        <v>0.006651600211880464</v>
+        <v>0.006064924989531315</v>
       </c>
       <c r="T5">
-        <v>0.006651600211880466</v>
+        <v>0.006064924989531315</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.675848</v>
+        <v>15.18183966666667</v>
       </c>
       <c r="H6">
-        <v>29.027544</v>
+        <v>45.545519</v>
       </c>
       <c r="I6">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="J6">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.373837</v>
+        <v>30.64915533333333</v>
       </c>
       <c r="N6">
-        <v>88.121511</v>
+        <v>91.94746599999999</v>
       </c>
       <c r="O6">
-        <v>0.1735053986454552</v>
+        <v>0.1786793955144635</v>
       </c>
       <c r="P6">
-        <v>0.1735053986454552</v>
+        <v>0.1786793955144635</v>
       </c>
       <c r="Q6">
-        <v>284.216781988776</v>
+        <v>465.3105621894281</v>
       </c>
       <c r="R6">
-        <v>2557.951037898984</v>
+        <v>4187.795059704854</v>
       </c>
       <c r="S6">
-        <v>0.01023525801786287</v>
+        <v>0.01519888146146518</v>
       </c>
       <c r="T6">
-        <v>0.01023525801786287</v>
+        <v>0.01519888146146518</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.675848</v>
+        <v>15.18183966666667</v>
       </c>
       <c r="H7">
-        <v>29.027544</v>
+        <v>45.545519</v>
       </c>
       <c r="I7">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="J7">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.10401433333333</v>
+        <v>40.863284</v>
       </c>
       <c r="N7">
-        <v>120.312043</v>
+        <v>122.589852</v>
       </c>
       <c r="O7">
-        <v>0.2368864167860688</v>
+        <v>0.2382260393295401</v>
       </c>
       <c r="P7">
-        <v>0.2368864167860689</v>
+        <v>0.2382260393295401</v>
       </c>
       <c r="Q7">
-        <v>388.0403468791546</v>
+        <v>620.3798259414654</v>
       </c>
       <c r="R7">
-        <v>3492.363121912392</v>
+        <v>5583.418433473188</v>
       </c>
       <c r="S7">
-        <v>0.01397416804123131</v>
+        <v>0.02026405631370591</v>
       </c>
       <c r="T7">
-        <v>0.01397416804123131</v>
+        <v>0.02026405631370592</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>29.79141</v>
       </c>
       <c r="H8">
-        <v>89.37423</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I8">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236128</v>
       </c>
       <c r="J8">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236129</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.38628533333333</v>
+        <v>22.18032933333333</v>
       </c>
       <c r="N8">
-        <v>40.158856</v>
+        <v>66.540988</v>
       </c>
       <c r="O8">
-        <v>0.0790701185256053</v>
+        <v>0.1293075712687413</v>
       </c>
       <c r="P8">
-        <v>0.07907011852560532</v>
+        <v>0.1293075712687413</v>
       </c>
       <c r="Q8">
-        <v>398.79631474232</v>
+        <v>660.7832851043601</v>
       </c>
       <c r="R8">
-        <v>3589.16683268088</v>
+        <v>5947.049565939241</v>
       </c>
       <c r="S8">
-        <v>0.0143615135932462</v>
+        <v>0.02158379292909783</v>
       </c>
       <c r="T8">
-        <v>0.0143615135932462</v>
+        <v>0.02158379292909784</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>29.79141</v>
       </c>
       <c r="H9">
-        <v>89.37423</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I9">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236128</v>
       </c>
       <c r="J9">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236129</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.29177033333333</v>
+        <v>27.29177033333334</v>
       </c>
       <c r="N9">
-        <v>81.875311</v>
+        <v>81.87531100000001</v>
       </c>
       <c r="O9">
-        <v>0.1612070459649248</v>
+        <v>0.1591064084032366</v>
       </c>
       <c r="P9">
-        <v>0.1612070459649248</v>
+        <v>0.1591064084032366</v>
       </c>
       <c r="Q9">
-        <v>813.06031962617</v>
+        <v>813.0603196261701</v>
       </c>
       <c r="R9">
-        <v>7317.54287663553</v>
+        <v>7317.542876635532</v>
       </c>
       <c r="S9">
-        <v>0.0292800519984374</v>
+        <v>0.02655776254223166</v>
       </c>
       <c r="T9">
-        <v>0.0292800519984374</v>
+        <v>0.02655776254223167</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,13 +1042,13 @@
         <v>29.79141</v>
       </c>
       <c r="H10">
-        <v>89.37423</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I10">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236128</v>
       </c>
       <c r="J10">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236129</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.05126633333333</v>
+        <v>38.31685533333334</v>
       </c>
       <c r="N10">
-        <v>120.153799</v>
+        <v>114.950566</v>
       </c>
       <c r="O10">
-        <v>0.2365748448668895</v>
+        <v>0.2233807905801933</v>
       </c>
       <c r="P10">
-        <v>0.2365748448668896</v>
+        <v>0.2233807905801933</v>
       </c>
       <c r="Q10">
-        <v>1193.18369635553</v>
+        <v>1141.51314714602</v>
       </c>
       <c r="R10">
-        <v>10738.65326719977</v>
+        <v>10273.61832431418</v>
       </c>
       <c r="S10">
-        <v>0.04296911290547398</v>
+        <v>0.03728632964732345</v>
       </c>
       <c r="T10">
-        <v>0.04296911290547399</v>
+        <v>0.03728632964732346</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>29.79141</v>
       </c>
       <c r="H11">
-        <v>89.37423</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I11">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236128</v>
       </c>
       <c r="J11">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236129</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.089213</v>
+        <v>12.230165</v>
       </c>
       <c r="N11">
-        <v>57.267639</v>
+        <v>36.690495</v>
       </c>
       <c r="O11">
-        <v>0.1127561752110562</v>
+        <v>0.07129979490382526</v>
       </c>
       <c r="P11">
-        <v>0.1127561752110563</v>
+        <v>0.07129979490382526</v>
       </c>
       <c r="Q11">
-        <v>568.69457106033</v>
+        <v>364.35385988265</v>
       </c>
       <c r="R11">
-        <v>5118.25113954297</v>
+        <v>3279.18473894385</v>
       </c>
       <c r="S11">
-        <v>0.02047991546252254</v>
+        <v>0.01190123667153994</v>
       </c>
       <c r="T11">
-        <v>0.02047991546252255</v>
+        <v>0.01190123667153995</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,13 +1166,13 @@
         <v>29.79141</v>
       </c>
       <c r="H12">
-        <v>89.37423</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I12">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236128</v>
       </c>
       <c r="J12">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236129</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.373837</v>
+        <v>30.64915533333333</v>
       </c>
       <c r="N12">
-        <v>88.121511</v>
+        <v>91.94746599999999</v>
       </c>
       <c r="O12">
-        <v>0.1735053986454552</v>
+        <v>0.1786793955144635</v>
       </c>
       <c r="P12">
-        <v>0.1735053986454552</v>
+        <v>0.1786793955144635</v>
       </c>
       <c r="Q12">
-        <v>875.0880213401699</v>
+        <v>913.08155268902</v>
       </c>
       <c r="R12">
-        <v>7875.79219206153</v>
+        <v>8217.733974201181</v>
       </c>
       <c r="S12">
-        <v>0.03151380303472525</v>
+        <v>0.02982485121049395</v>
       </c>
       <c r="T12">
-        <v>0.03151380303472525</v>
+        <v>0.02982485121049396</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,13 +1228,13 @@
         <v>29.79141</v>
       </c>
       <c r="H13">
-        <v>89.37423</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I13">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236128</v>
       </c>
       <c r="J13">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236129</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>40.10401433333333</v>
+        <v>40.863284</v>
       </c>
       <c r="N13">
-        <v>120.312043</v>
+        <v>122.589852</v>
       </c>
       <c r="O13">
-        <v>0.2368864167860688</v>
+        <v>0.2382260393295401</v>
       </c>
       <c r="P13">
-        <v>0.2368864167860689</v>
+        <v>0.2382260393295401</v>
       </c>
       <c r="Q13">
-        <v>1194.75513365021</v>
+        <v>1217.37484759044</v>
       </c>
       <c r="R13">
-        <v>10752.79620285189</v>
+        <v>10956.37362831396</v>
       </c>
       <c r="S13">
-        <v>0.04302570374454195</v>
+        <v>0.03976427252292602</v>
       </c>
       <c r="T13">
-        <v>0.04302570374454195</v>
+        <v>0.03976427252292603</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>33.09422799999999</v>
+        <v>42.72850400000001</v>
       </c>
       <c r="H14">
-        <v>99.28268399999999</v>
+        <v>128.185512</v>
       </c>
       <c r="I14">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="J14">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.38628533333333</v>
+        <v>22.18032933333333</v>
       </c>
       <c r="N14">
-        <v>40.158856</v>
+        <v>66.540988</v>
       </c>
       <c r="O14">
-        <v>0.0790701185256053</v>
+        <v>0.1293075712687413</v>
       </c>
       <c r="P14">
-        <v>0.07907011852560532</v>
+        <v>0.1293075712687413</v>
       </c>
       <c r="Q14">
-        <v>443.0087788943893</v>
+        <v>947.7322906406508</v>
       </c>
       <c r="R14">
-        <v>3987.079010049504</v>
+        <v>8529.590615765857</v>
       </c>
       <c r="S14">
-        <v>0.01595369958253029</v>
+        <v>0.03095668122140337</v>
       </c>
       <c r="T14">
-        <v>0.0159536995825303</v>
+        <v>0.03095668122140337</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>33.09422799999999</v>
+        <v>42.72850400000001</v>
       </c>
       <c r="H15">
-        <v>99.28268399999999</v>
+        <v>128.185512</v>
       </c>
       <c r="I15">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="J15">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.29177033333333</v>
+        <v>27.29177033333334</v>
       </c>
       <c r="N15">
-        <v>81.875311</v>
+        <v>81.87531100000001</v>
       </c>
       <c r="O15">
-        <v>0.1612070459649248</v>
+        <v>0.1591064084032366</v>
       </c>
       <c r="P15">
-        <v>0.1612070459649248</v>
+        <v>0.1591064084032366</v>
       </c>
       <c r="Q15">
-        <v>903.2000699349692</v>
+        <v>1166.136517854915</v>
       </c>
       <c r="R15">
-        <v>8128.800629414723</v>
+        <v>10495.22866069423</v>
       </c>
       <c r="S15">
-        <v>0.03252617840807611</v>
+        <v>0.03809062622470019</v>
       </c>
       <c r="T15">
-        <v>0.03252617840807612</v>
+        <v>0.0380906262247002</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>33.09422799999999</v>
+        <v>42.72850400000001</v>
       </c>
       <c r="H16">
-        <v>99.28268399999999</v>
+        <v>128.185512</v>
       </c>
       <c r="I16">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="J16">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>40.05126633333333</v>
+        <v>38.31685533333334</v>
       </c>
       <c r="N16">
-        <v>120.153799</v>
+        <v>114.950566</v>
       </c>
       <c r="O16">
-        <v>0.2365748448668895</v>
+        <v>0.2233807905801933</v>
       </c>
       <c r="P16">
-        <v>0.2365748448668896</v>
+        <v>0.2233807905801933</v>
       </c>
       <c r="Q16">
-        <v>1325.465739724057</v>
+        <v>1637.221906377755</v>
       </c>
       <c r="R16">
-        <v>11929.19165751651</v>
+        <v>14734.9971573998</v>
       </c>
       <c r="S16">
-        <v>0.04773287398788772</v>
+        <v>0.05347813633127733</v>
       </c>
       <c r="T16">
-        <v>0.04773287398788773</v>
+        <v>0.05347813633127733</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>33.09422799999999</v>
+        <v>42.72850400000001</v>
       </c>
       <c r="H17">
-        <v>99.28268399999999</v>
+        <v>128.185512</v>
       </c>
       <c r="I17">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="J17">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.089213</v>
+        <v>12.230165</v>
       </c>
       <c r="N17">
-        <v>57.267639</v>
+        <v>36.690495</v>
       </c>
       <c r="O17">
-        <v>0.1127561752110562</v>
+        <v>0.07129979490382526</v>
       </c>
       <c r="P17">
-        <v>0.1127561752110563</v>
+        <v>0.07129979490382526</v>
       </c>
       <c r="Q17">
-        <v>631.7427673625639</v>
+        <v>522.5766541231601</v>
       </c>
       <c r="R17">
-        <v>5685.684906263075</v>
+        <v>4703.18988710844</v>
       </c>
       <c r="S17">
-        <v>0.02275041670526659</v>
+        <v>0.01706941828952847</v>
       </c>
       <c r="T17">
-        <v>0.0227504167052666</v>
+        <v>0.01706941828952847</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.09422799999999</v>
+        <v>42.72850400000001</v>
       </c>
       <c r="H18">
-        <v>99.28268399999999</v>
+        <v>128.185512</v>
       </c>
       <c r="I18">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="J18">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>29.373837</v>
+        <v>30.64915533333333</v>
       </c>
       <c r="N18">
-        <v>88.121511</v>
+        <v>91.94746599999999</v>
       </c>
       <c r="O18">
-        <v>0.1735053986454552</v>
+        <v>0.1786793955144635</v>
       </c>
       <c r="P18">
-        <v>0.1735053986454552</v>
+        <v>0.1786793955144635</v>
       </c>
       <c r="Q18">
-        <v>972.1044589128358</v>
+        <v>1309.592556256955</v>
       </c>
       <c r="R18">
-        <v>8748.940130215522</v>
+        <v>11786.33300631259</v>
       </c>
       <c r="S18">
-        <v>0.03500757375291364</v>
+        <v>0.04277646725170093</v>
       </c>
       <c r="T18">
-        <v>0.03500757375291366</v>
+        <v>0.04277646725170093</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.09422799999999</v>
+        <v>42.72850400000001</v>
       </c>
       <c r="H19">
-        <v>99.28268399999999</v>
+        <v>128.185512</v>
       </c>
       <c r="I19">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="J19">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>40.10401433333333</v>
+        <v>40.863284</v>
       </c>
       <c r="N19">
-        <v>120.312043</v>
+        <v>122.589852</v>
       </c>
       <c r="O19">
-        <v>0.2368864167860688</v>
+        <v>0.2382260393295401</v>
       </c>
       <c r="P19">
-        <v>0.2368864167860689</v>
+        <v>0.2382260393295401</v>
       </c>
       <c r="Q19">
-        <v>1327.211394062601</v>
+        <v>1746.026993847136</v>
       </c>
       <c r="R19">
-        <v>11944.90254656341</v>
+        <v>15714.24294462423</v>
       </c>
       <c r="S19">
-        <v>0.04779573875765949</v>
+        <v>0.05703214039056676</v>
       </c>
       <c r="T19">
-        <v>0.04779573875765951</v>
+        <v>0.05703214039056677</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.83640933333333</v>
+        <v>10.00063733333333</v>
       </c>
       <c r="H20">
-        <v>41.509228</v>
+        <v>30.001912</v>
       </c>
       <c r="I20">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="J20">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.38628533333333</v>
+        <v>22.18032933333333</v>
       </c>
       <c r="N20">
-        <v>40.158856</v>
+        <v>66.540988</v>
       </c>
       <c r="O20">
-        <v>0.0790701185256053</v>
+        <v>0.1293075712687413</v>
       </c>
       <c r="P20">
-        <v>0.07907011852560532</v>
+        <v>0.1293075712687413</v>
       </c>
       <c r="Q20">
-        <v>185.2181233247965</v>
+        <v>221.8174295965618</v>
       </c>
       <c r="R20">
-        <v>1666.963109923168</v>
+        <v>1996.356866369056</v>
       </c>
       <c r="S20">
-        <v>0.006670103251990598</v>
+        <v>0.007245433679093128</v>
       </c>
       <c r="T20">
-        <v>0.0066701032519906</v>
+        <v>0.007245433679093128</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.83640933333333</v>
+        <v>10.00063733333333</v>
       </c>
       <c r="H21">
-        <v>41.509228</v>
+        <v>30.001912</v>
       </c>
       <c r="I21">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="J21">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>27.29177033333333</v>
+        <v>27.29177033333334</v>
       </c>
       <c r="N21">
-        <v>81.875311</v>
+        <v>81.87531100000001</v>
       </c>
       <c r="O21">
-        <v>0.1612070459649248</v>
+        <v>0.1591064084032366</v>
       </c>
       <c r="P21">
-        <v>0.1612070459649248</v>
+        <v>0.1591064084032366</v>
       </c>
       <c r="Q21">
-        <v>377.6201057633231</v>
+        <v>272.9350972882925</v>
       </c>
       <c r="R21">
-        <v>3398.580951869908</v>
+        <v>2456.415875594632</v>
       </c>
       <c r="S21">
-        <v>0.01359891273194738</v>
+        <v>0.008915138678217764</v>
       </c>
       <c r="T21">
-        <v>0.01359891273194738</v>
+        <v>0.008915138678217766</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.83640933333333</v>
+        <v>10.00063733333333</v>
       </c>
       <c r="H22">
-        <v>41.509228</v>
+        <v>30.001912</v>
       </c>
       <c r="I22">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="J22">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>40.05126633333333</v>
+        <v>38.31685533333334</v>
       </c>
       <c r="N22">
-        <v>120.153799</v>
+        <v>114.950566</v>
       </c>
       <c r="O22">
-        <v>0.2365748448668895</v>
+        <v>0.2233807905801933</v>
       </c>
       <c r="P22">
-        <v>0.2365748448668896</v>
+        <v>0.2233807905801933</v>
       </c>
       <c r="Q22">
-        <v>554.1657153063525</v>
+        <v>383.1929739424658</v>
       </c>
       <c r="R22">
-        <v>4987.491437757171</v>
+        <v>3448.736765482192</v>
       </c>
       <c r="S22">
-        <v>0.01995670009745608</v>
+        <v>0.01251659657243468</v>
       </c>
       <c r="T22">
-        <v>0.01995670009745608</v>
+        <v>0.01251659657243468</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.83640933333333</v>
+        <v>10.00063733333333</v>
       </c>
       <c r="H23">
-        <v>41.509228</v>
+        <v>30.001912</v>
       </c>
       <c r="I23">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="J23">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.089213</v>
+        <v>12.230165</v>
       </c>
       <c r="N23">
-        <v>57.267639</v>
+        <v>36.690495</v>
       </c>
       <c r="O23">
-        <v>0.1127561752110562</v>
+        <v>0.07129979490382526</v>
       </c>
       <c r="P23">
-        <v>0.1127561752110563</v>
+        <v>0.07129979490382526</v>
       </c>
       <c r="Q23">
-        <v>264.126164919188</v>
+        <v>122.3094446918267</v>
       </c>
       <c r="R23">
-        <v>2377.135484272692</v>
+        <v>1100.78500222644</v>
       </c>
       <c r="S23">
-        <v>0.009511751657659859</v>
+        <v>0.003995109723582674</v>
       </c>
       <c r="T23">
-        <v>0.009511751657659861</v>
+        <v>0.003995109723582674</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.83640933333333</v>
+        <v>10.00063733333333</v>
       </c>
       <c r="H24">
-        <v>41.509228</v>
+        <v>30.001912</v>
       </c>
       <c r="I24">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="J24">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>29.373837</v>
+        <v>30.64915533333333</v>
       </c>
       <c r="N24">
-        <v>88.121511</v>
+        <v>91.94746599999999</v>
       </c>
       <c r="O24">
-        <v>0.1735053986454552</v>
+        <v>0.1786793955144635</v>
       </c>
       <c r="P24">
-        <v>0.1735053986454552</v>
+        <v>0.1786793955144635</v>
       </c>
       <c r="Q24">
-        <v>406.428432422612</v>
+        <v>306.5110870616658</v>
       </c>
       <c r="R24">
-        <v>3657.855891803508</v>
+        <v>2758.599783554992</v>
       </c>
       <c r="S24">
-        <v>0.01463636257694754</v>
+        <v>0.01001186316716052</v>
       </c>
       <c r="T24">
-        <v>0.01463636257694754</v>
+        <v>0.01001186316716052</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>13.83640933333333</v>
+        <v>10.00063733333333</v>
       </c>
       <c r="H25">
-        <v>41.509228</v>
+        <v>30.001912</v>
       </c>
       <c r="I25">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="J25">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>40.10401433333333</v>
+        <v>40.863284</v>
       </c>
       <c r="N25">
-        <v>120.312043</v>
+        <v>122.589852</v>
       </c>
       <c r="O25">
-        <v>0.2368864167860688</v>
+        <v>0.2382260393295401</v>
       </c>
       <c r="P25">
-        <v>0.2368864167860689</v>
+        <v>0.2382260393295401</v>
       </c>
       <c r="Q25">
-        <v>554.8955582258671</v>
+        <v>408.6588835330027</v>
       </c>
       <c r="R25">
-        <v>4994.060024032804</v>
+        <v>3677.929951797024</v>
       </c>
       <c r="S25">
-        <v>0.01998298331177394</v>
+        <v>0.01334841379866259</v>
       </c>
       <c r="T25">
-        <v>0.01998298331177394</v>
+        <v>0.01334841379866259</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>40.28908533333333</v>
+        <v>45.75202433333333</v>
       </c>
       <c r="H26">
-        <v>120.867256</v>
+        <v>137.256073</v>
       </c>
       <c r="I26">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="J26">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.38628533333333</v>
+        <v>22.18032933333333</v>
       </c>
       <c r="N26">
-        <v>40.158856</v>
+        <v>66.540988</v>
       </c>
       <c r="O26">
-        <v>0.0790701185256053</v>
+        <v>0.1293075712687413</v>
       </c>
       <c r="P26">
-        <v>0.07907011852560532</v>
+        <v>0.1293075712687413</v>
       </c>
       <c r="Q26">
-        <v>539.3211920910151</v>
+        <v>1014.794967380014</v>
       </c>
       <c r="R26">
-        <v>4853.890728819136</v>
+        <v>9133.154706420122</v>
       </c>
       <c r="S26">
-        <v>0.01942211686771867</v>
+        <v>0.03314721321675314</v>
       </c>
       <c r="T26">
-        <v>0.01942211686771867</v>
+        <v>0.03314721321675314</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>40.28908533333333</v>
+        <v>45.75202433333333</v>
       </c>
       <c r="H27">
-        <v>120.867256</v>
+        <v>137.256073</v>
       </c>
       <c r="I27">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="J27">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>27.29177033333333</v>
+        <v>27.29177033333334</v>
       </c>
       <c r="N27">
-        <v>81.875311</v>
+        <v>81.87531100000001</v>
       </c>
       <c r="O27">
-        <v>0.1612070459649248</v>
+        <v>0.1591064084032366</v>
       </c>
       <c r="P27">
-        <v>0.1612070459649248</v>
+        <v>0.1591064084032366</v>
       </c>
       <c r="Q27">
-        <v>1099.560463857402</v>
+        <v>1248.653740390411</v>
       </c>
       <c r="R27">
-        <v>9896.044174716615</v>
+        <v>11237.8836635137</v>
       </c>
       <c r="S27">
-        <v>0.03959753880496027</v>
+        <v>0.04078596474859938</v>
       </c>
       <c r="T27">
-        <v>0.03959753880496028</v>
+        <v>0.04078596474859939</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>40.28908533333333</v>
+        <v>45.75202433333333</v>
       </c>
       <c r="H28">
-        <v>120.867256</v>
+        <v>137.256073</v>
       </c>
       <c r="I28">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="J28">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>40.05126633333333</v>
+        <v>38.31685533333334</v>
       </c>
       <c r="N28">
-        <v>120.153799</v>
+        <v>114.950566</v>
       </c>
       <c r="O28">
-        <v>0.2365748448668895</v>
+        <v>0.2233807905801933</v>
       </c>
       <c r="P28">
-        <v>0.2365748448668896</v>
+        <v>0.2233807905801933</v>
       </c>
       <c r="Q28">
-        <v>1613.628887011727</v>
+        <v>1753.07369758748</v>
       </c>
       <c r="R28">
-        <v>14522.65998310554</v>
+        <v>15777.66327828732</v>
       </c>
       <c r="S28">
-        <v>0.05811024911362959</v>
+        <v>0.05726231357713618</v>
       </c>
       <c r="T28">
-        <v>0.0581102491136296</v>
+        <v>0.05726231357713618</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>40.28908533333333</v>
+        <v>45.75202433333333</v>
       </c>
       <c r="H29">
-        <v>120.867256</v>
+        <v>137.256073</v>
       </c>
       <c r="I29">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="J29">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>19.089213</v>
+        <v>12.230165</v>
       </c>
       <c r="N29">
-        <v>57.267639</v>
+        <v>36.690495</v>
       </c>
       <c r="O29">
-        <v>0.1127561752110562</v>
+        <v>0.07129979490382526</v>
       </c>
       <c r="P29">
-        <v>0.1127561752110563</v>
+        <v>0.07129979490382526</v>
       </c>
       <c r="Q29">
-        <v>769.0869315031761</v>
+        <v>559.5548066806816</v>
       </c>
       <c r="R29">
-        <v>6921.782383528584</v>
+        <v>5035.993260126134</v>
       </c>
       <c r="S29">
-        <v>0.02769647565150569</v>
+        <v>0.01827727085737313</v>
       </c>
       <c r="T29">
-        <v>0.0276964756515057</v>
+        <v>0.01827727085737313</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>40.28908533333333</v>
+        <v>45.75202433333333</v>
       </c>
       <c r="H30">
-        <v>120.867256</v>
+        <v>137.256073</v>
       </c>
       <c r="I30">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="J30">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>29.373837</v>
+        <v>30.64915533333333</v>
       </c>
       <c r="N30">
-        <v>88.121511</v>
+        <v>91.94746599999999</v>
       </c>
       <c r="O30">
-        <v>0.1735053986454552</v>
+        <v>0.1786793955144635</v>
       </c>
       <c r="P30">
-        <v>0.1735053986454552</v>
+        <v>0.1786793955144635</v>
       </c>
       <c r="Q30">
-        <v>1183.445025460424</v>
+        <v>1402.26090060678</v>
       </c>
       <c r="R30">
-        <v>10651.00522914382</v>
+        <v>12620.34810546101</v>
       </c>
       <c r="S30">
-        <v>0.04261840240673081</v>
+        <v>0.04580338152241083</v>
       </c>
       <c r="T30">
-        <v>0.04261840240673082</v>
+        <v>0.04580338152241083</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>40.28908533333333</v>
+        <v>45.75202433333333</v>
       </c>
       <c r="H31">
-        <v>120.867256</v>
+        <v>137.256073</v>
       </c>
       <c r="I31">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="J31">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>40.10401433333333</v>
+        <v>40.863284</v>
       </c>
       <c r="N31">
-        <v>120.312043</v>
+        <v>122.589852</v>
       </c>
       <c r="O31">
-        <v>0.2368864167860688</v>
+        <v>0.2382260393295401</v>
       </c>
       <c r="P31">
-        <v>0.2368864167860689</v>
+        <v>0.2382260393295401</v>
       </c>
       <c r="Q31">
-        <v>1615.75405568489</v>
+        <v>1869.577963907911</v>
       </c>
       <c r="R31">
-        <v>14541.78650116401</v>
+        <v>16826.2016751712</v>
       </c>
       <c r="S31">
-        <v>0.0581867810113912</v>
+        <v>0.06106780323812162</v>
       </c>
       <c r="T31">
-        <v>0.05818678101139121</v>
+        <v>0.06106780323812163</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>37.33544666666666</v>
+        <v>35.02463533333333</v>
       </c>
       <c r="H32">
-        <v>112.00634</v>
+        <v>105.073906</v>
       </c>
       <c r="I32">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="J32">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>13.38628533333333</v>
+        <v>22.18032933333333</v>
       </c>
       <c r="N32">
-        <v>40.158856</v>
+        <v>66.540988</v>
       </c>
       <c r="O32">
-        <v>0.0790701185256053</v>
+        <v>0.1293075712687413</v>
       </c>
       <c r="P32">
-        <v>0.07907011852560532</v>
+        <v>0.1293075712687413</v>
       </c>
       <c r="Q32">
-        <v>499.7829421274488</v>
+        <v>776.8579464732363</v>
       </c>
       <c r="R32">
-        <v>4498.046479147039</v>
+        <v>6991.721518259127</v>
       </c>
       <c r="S32">
-        <v>0.01799825939132292</v>
+        <v>0.0253752499949425</v>
       </c>
       <c r="T32">
-        <v>0.01799825939132293</v>
+        <v>0.0253752499949425</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>37.33544666666666</v>
+        <v>35.02463533333333</v>
       </c>
       <c r="H33">
-        <v>112.00634</v>
+        <v>105.073906</v>
       </c>
       <c r="I33">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="J33">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>27.29177033333333</v>
+        <v>27.29177033333334</v>
       </c>
       <c r="N33">
-        <v>81.875311</v>
+        <v>81.87531100000001</v>
       </c>
       <c r="O33">
-        <v>0.1612070459649248</v>
+        <v>0.1591064084032366</v>
       </c>
       <c r="P33">
-        <v>0.1612070459649248</v>
+        <v>0.1591064084032366</v>
       </c>
       <c r="Q33">
-        <v>1018.950435719082</v>
+        <v>955.8843035260851</v>
       </c>
       <c r="R33">
-        <v>9170.553921471739</v>
+        <v>8602.958731734767</v>
       </c>
       <c r="S33">
-        <v>0.03669459820078627</v>
+        <v>0.03122295817186643</v>
       </c>
       <c r="T33">
-        <v>0.03669459820078628</v>
+        <v>0.03122295817186644</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>37.33544666666666</v>
+        <v>35.02463533333333</v>
       </c>
       <c r="H34">
-        <v>112.00634</v>
+        <v>105.073906</v>
       </c>
       <c r="I34">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="J34">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>40.05126633333333</v>
+        <v>38.31685533333334</v>
       </c>
       <c r="N34">
-        <v>120.153799</v>
+        <v>114.950566</v>
       </c>
       <c r="O34">
-        <v>0.2365748448668895</v>
+        <v>0.2233807905801933</v>
       </c>
       <c r="P34">
-        <v>0.2365748448668896</v>
+        <v>0.2233807905801933</v>
       </c>
       <c r="Q34">
-        <v>1495.331918120629</v>
+        <v>1342.033885170088</v>
       </c>
       <c r="R34">
-        <v>13457.98726308566</v>
+        <v>12078.3049665308</v>
       </c>
       <c r="S34">
-        <v>0.05385012066217416</v>
+        <v>0.04383612923376097</v>
       </c>
       <c r="T34">
-        <v>0.05385012066217418</v>
+        <v>0.04383612923376098</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>37.33544666666666</v>
+        <v>35.02463533333333</v>
       </c>
       <c r="H35">
-        <v>112.00634</v>
+        <v>105.073906</v>
       </c>
       <c r="I35">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="J35">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>19.089213</v>
+        <v>12.230165</v>
       </c>
       <c r="N35">
-        <v>57.267639</v>
+        <v>36.690495</v>
       </c>
       <c r="O35">
-        <v>0.1127561752110562</v>
+        <v>0.07129979490382526</v>
       </c>
       <c r="P35">
-        <v>0.1127561752110563</v>
+        <v>0.07129979490382526</v>
       </c>
       <c r="Q35">
-        <v>712.70429387014</v>
+        <v>428.3570691914966</v>
       </c>
       <c r="R35">
-        <v>6414.33864483126</v>
+        <v>3855.21362272347</v>
       </c>
       <c r="S35">
-        <v>0.02566601552222107</v>
+        <v>0.01399183437226973</v>
       </c>
       <c r="T35">
-        <v>0.02566601552222108</v>
+        <v>0.01399183437226974</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>37.33544666666666</v>
+        <v>35.02463533333333</v>
       </c>
       <c r="H36">
-        <v>112.00634</v>
+        <v>105.073906</v>
       </c>
       <c r="I36">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="J36">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>29.373837</v>
+        <v>30.64915533333333</v>
       </c>
       <c r="N36">
-        <v>88.121511</v>
+        <v>91.94746599999999</v>
       </c>
       <c r="O36">
-        <v>0.1735053986454552</v>
+        <v>0.1786793955144635</v>
       </c>
       <c r="P36">
-        <v>0.1735053986454552</v>
+        <v>0.1786793955144635</v>
       </c>
       <c r="Q36">
-        <v>1096.68532470886</v>
+        <v>1073.475488824688</v>
       </c>
       <c r="R36">
-        <v>9870.16792237974</v>
+        <v>9661.279399422194</v>
       </c>
       <c r="S36">
-        <v>0.03949399885627509</v>
+        <v>0.03506395090123212</v>
       </c>
       <c r="T36">
-        <v>0.03949399885627511</v>
+        <v>0.03506395090123212</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>37.33544666666666</v>
+        <v>35.02463533333333</v>
       </c>
       <c r="H37">
-        <v>112.00634</v>
+        <v>105.073906</v>
       </c>
       <c r="I37">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="J37">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>40.10401433333333</v>
+        <v>40.863284</v>
       </c>
       <c r="N37">
-        <v>120.312043</v>
+        <v>122.589852</v>
       </c>
       <c r="O37">
-        <v>0.2368864167860688</v>
+        <v>0.2382260393295401</v>
       </c>
       <c r="P37">
-        <v>0.2368864167860689</v>
+        <v>0.2382260393295401</v>
       </c>
       <c r="Q37">
-        <v>1497.301288261402</v>
+        <v>1431.221620622435</v>
       </c>
       <c r="R37">
-        <v>13475.71159435262</v>
+        <v>12880.99458560191</v>
       </c>
       <c r="S37">
-        <v>0.05392104191947095</v>
+        <v>0.04674935306555715</v>
       </c>
       <c r="T37">
-        <v>0.05392104191947096</v>
+        <v>0.04674935306555716</v>
       </c>
     </row>
   </sheetData>
